--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -13,47 +13,35 @@
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
-    <sheet name="Tags" sheetId="4" r:id="rId3"/>
-    <sheet name="Features" sheetId="2" r:id="rId4"/>
+    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
+    <sheet name="Tags" sheetId="15" r:id="rId3"/>
+    <sheet name="Features" sheetId="16" r:id="rId4"/>
     <sheet name="Execution" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="Chart1">Scenarios!$M$23</definedName>
+    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Skipped</t>
   </si>
   <si>
     <t>Feature 1</t>
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>Feature 2</t>
-  </si>
-  <si>
-    <t>Feature 3</t>
-  </si>
-  <si>
-    <t>Feature 4</t>
-  </si>
-  <si>
-    <t>Feature 5</t>
   </si>
   <si>
     <t>Title</t>
@@ -98,9 +86,6 @@
     <t>Steps Skipped</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
     <t>DURATION</t>
   </si>
   <si>
@@ -135,48 +120,6 @@
   </si>
   <si>
     <t>Scenario 1</t>
-  </si>
-  <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>Scenario 3</t>
-  </si>
-  <si>
-    <t>Scenario 4</t>
-  </si>
-  <si>
-    <t>Scenario 5</t>
-  </si>
-  <si>
-    <t>Scenario 6</t>
-  </si>
-  <si>
-    <t>Scenario 7</t>
-  </si>
-  <si>
-    <t>Scenario 8</t>
-  </si>
-  <si>
-    <t>Scenario 9</t>
-  </si>
-  <si>
-    <t>Scenario 10</t>
-  </si>
-  <si>
-    <t>tag1</t>
-  </si>
-  <si>
-    <t>tag2</t>
-  </si>
-  <si>
-    <t>tag3</t>
-  </si>
-  <si>
-    <t>tag4</t>
-  </si>
-  <si>
-    <t>tag5</t>
   </si>
   <si>
     <t>Excel Extent Report</t>
@@ -220,15 +163,18 @@
   <si>
     <t>Level 1111</t>
   </si>
+  <si>
+    <t>TAG NAME</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m:s.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +190,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -261,35 +216,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:s.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:s.0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF51FF21"/>
       <color rgb="FF000099"/>
-      <color rgb="FF51FF21"/>
       <color rgb="FF27F959"/>
     </mruColors>
   </colors>
@@ -1000,12 +1003,12 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenario \ Step Count</a:t>
+              <a:t>Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1065,83 +1068,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$30</c:f>
+              <c:f>Scenarios!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scenario 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scenario 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scenario 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Scenario 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Scenario 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Scenario 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$21:$H$30</c:f>
+              <c:f>Scenarios!$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
+              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1186,71 +1141,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$30</c:f>
+              <c:f>Scenarios!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scenario 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scenario 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scenario 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Scenario 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Scenario 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Scenario 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$21:$J$30</c:f>
+              <c:f>Scenarios!$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
+              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -1272,6 +1191,16 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BC15-411D-962D-5DCB501C11F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1295,60 +1224,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$30</c:f>
+              <c:f>Scenarios!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scenario 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scenario 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scenario 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Scenario 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Scenario 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Scenario 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$21:$I$30</c:f>
+              <c:f>Scenarios!$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
+              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1388,12 +1287,34 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:crossAx val="62860288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1441,6 +1362,233 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2858134693485639E-2"/>
+          <c:y val="0.17364592842131704"/>
+          <c:w val="0.96715927750410513"/>
+          <c:h val="0.78524645049290098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1456,7 +1604,7 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Tag \ Scenario Count</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1516,51 +1664,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$25</c:f>
+              <c:f>Tags!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tag1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tag2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tag3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>tag4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tag5</c:v>
+                  <c:v>tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$21:$D$25</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
+              <c16:uniqueId val="{00000000-CB72-409B-BBA5-6D90A1021667}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1610,51 +1737,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$25</c:f>
+              <c:f>Tags!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tag1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tag2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tag3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>tag4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tag5</c:v>
+                  <c:v>tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$21:$F$25</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2604-4208-BEA8-EA9F96270641}"/>
+              <c16:uniqueId val="{00000001-CB72-409B-BBA5-6D90A1021667}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1704,48 +1810,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$25</c:f>
+              <c:f>Tags!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tag1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tag2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tag3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>tag4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tag5</c:v>
+                  <c:v>tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$21:$E$25</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2604-4208-BEA8-EA9F96270641}"/>
+              <c16:uniqueId val="{00000002-CB72-409B-BBA5-6D90A1021667}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1785,12 +1873,34 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:crossAx val="62946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1825,7 +1935,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1855,11 +1965,12 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Feature \ Scenario Count</a:t>
+              <a:t>Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1909,57 +2020,37 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$25</c:f>
+              <c:f>Features!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Feature 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feature 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feature 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Feature 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feature 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$21:$F$25</c:f>
+              <c:f>Features!$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
+              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2003,43 +2094,29 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$25</c:f>
+              <c:f>Features!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Feature 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feature 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feature 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Feature 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feature 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$21:$H$25</c:f>
+              <c:f>Features!$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2047,7 +2124,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
+              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2091,40 +2168,29 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$25</c:f>
+              <c:f>Features!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Feature 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feature 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feature 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Feature 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feature 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$21:$G$25</c:f>
+              <c:f>Features!$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="2">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2132,7 +2198,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
+              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2173,12 +2239,35 @@
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:crossAx val="62483072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2211,6 +2300,230 @@
     <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.33104174160971E-2"/>
+          <c:y val="0.17399131020088512"/>
+          <c:w val="0.93298799578986635"/>
+          <c:h val="0.80271606659122552"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Features Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Features Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Features Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -4169,20 +4482,554 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1800224</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29019</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="FeatureDough"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1485901</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323851" y="180975"/>
+          <a:ext cx="1257300" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PASSED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$2">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="200025"/>
+          <a:ext cx="638176" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{8D92AF4D-37D8-4C38-8EA4-79D629C4A437}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>20</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="394759"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{4BDB8B57-B5FE-4228-A91E-0744CE1B7418}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>7</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="570444"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{DA77F91B-9789-46AB-9B3F-1F66E6395C90}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>3</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28095</cdr:x>
+      <cdr:y>0.38583</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75714</cdr:x>
+      <cdr:y>0.76772</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 21"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="561975" y="933452"/>
+          <a:ext cx="952500" cy="923924"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:scene3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>30</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4199,25 +5046,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4231,28 +5080,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190223</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="FeatureDough"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4260,65 +5106,499 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="190501"/>
+          <a:ext cx="1257299" cy="685799"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PASSED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$2">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="219075"/>
+          <a:ext cx="561975" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{6831FE4E-352E-4F7B-A3D4-680EF38773CC}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>5</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="394758"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{0F641F1E-076E-4A80-BD49-68B7250FC91E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>3</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94694</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="579969"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{7BE8BA97-C79D-4E6B-9351-B00E9B089144}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B20:J30" totalsRowShown="0">
-  <autoFilter ref="B20:J30"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="SCENARIO NAME"/>
-    <tableColumn id="2" name="SCENARIO STATUS"/>
-    <tableColumn id="3" name="DURATION" dataDxfId="1"/>
-    <tableColumn id="4" name="FEATURE NAME"/>
-    <tableColumn id="5" name="FEATURE STATUS"/>
-    <tableColumn id="6" name="STEP TOTAL"/>
-    <tableColumn id="7" name="STEP PASS"/>
-    <tableColumn id="8" name="STEP FAIL"/>
-    <tableColumn id="9" name="STEP SKIP"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28095</cdr:x>
+      <cdr:y>0.38583</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75714</cdr:x>
+      <cdr:y>0.76772</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 21"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="602111" y="1142827"/>
+          <a:ext cx="1020535" cy="1131157"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:scene3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>10</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B20:F25" totalsRowShown="0">
-  <autoFilter ref="B20:F25"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="NAME"/>
-    <tableColumn id="2" name="SCENARIO TOTAL"/>
-    <tableColumn id="3" name="SCENARIO PASS"/>
-    <tableColumn id="4" name="SCENARIO FAIL"/>
-    <tableColumn id="5" name="SCENARIO SKIP"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B20:L25" totalsRowShown="0">
-  <autoFilter ref="B20:L25"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="FEATURE NAME"/>
-    <tableColumn id="2" name="STATUS"/>
-    <tableColumn id="3" name="DURATION" dataDxfId="0"/>
-    <tableColumn id="4" name="SCENARIO TOTAL"/>
-    <tableColumn id="5" name="SCENARIO PASS"/>
-    <tableColumn id="6" name="SCENARIO FAIL"/>
-    <tableColumn id="7" name="SCENARIO SKIP"/>
-    <tableColumn id="8" name="STEP TOTAL"/>
-    <tableColumn id="9" name="STEP PASS"/>
-    <tableColumn id="10" name="STEP FAIL"/>
-    <tableColumn id="11" name="STEP SKIP"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Scenarios"/>
+      <sheetName val="Tags"/>
+      <sheetName val="Features"/>
+      <sheetName val="Execution"/>
+      <sheetName val="DB Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4611,7 +5891,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4633,453 +5913,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B20:J30"/>
+  <dimension ref="B20:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F27" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" t="s">
-        <v>59</v>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
-        <v>5.9027777777777778E-4</v>
-      </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1.7754629629629631E-3</v>
-      </c>
-      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
         <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7.1527777777777779E-4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2.3148148148148146E-4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>7</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2.2604166666666667E-3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>5.8449074074074078E-4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>3.1597222222222222E-3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6">
-        <v>7.1527777777777779E-4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6">
-        <v>6.4120370370370373E-4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2.2604166666666667E-3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B20:F25"/>
+  <dimension ref="B20:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B18:L25"/>
+  <dimension ref="B18:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:L25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -5087,174 +6096,76 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" t="s">
-        <v>59</v>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
-        <v>5.8449074074074078E-4</v>
-      </c>
       <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="I21">
-        <v>8</v>
-      </c>
-      <c r="J21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5.7870370370370378E-4</v>
-      </c>
-      <c r="E22">
+      <c r="L21">
         <v>3</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>12</v>
-      </c>
-      <c r="J23">
-        <v>8</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1.7939814814814815E-3</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>5.7870370370370378E-4</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -5275,104 +6186,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
@@ -5388,7 +6299,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5418,30 +6329,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -5449,25 +6360,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -5475,25 +6386,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -5501,27 +6412,27 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <f>SUM(F2:F4)</f>
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <f>SUM(H2:H4)</f>
@@ -5530,10 +6441,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
@@ -328,9 +328,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2840722495894911E-2"/>
-          <c:y val="0.18503978341290014"/>
-          <c:w val="0.96715927750410513"/>
+          <c:x val="3.2840722495894918E-2"/>
+          <c:y val="0.1850397834129002"/>
+          <c:w val="0.96715927750410535"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
       </c:layout>
@@ -513,7 +513,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -524,7 +524,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -552,9 +552,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2840722495894911E-2"/>
-          <c:y val="0.18503978341290014"/>
-          <c:w val="0.96715927750410513"/>
+          <c:x val="3.2840722495894918E-2"/>
+          <c:y val="0.1850397834129002"/>
+          <c:w val="0.96715927750410535"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
       </c:layout>
@@ -737,7 +737,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -748,7 +748,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -778,8 +778,8 @@
           <c:yMode val="edge"/>
           <c:x val="2.1956398307354442E-2"/>
           <c:y val="0.2285106433959492"/>
-          <c:w val="0.97260142482189726"/>
-          <c:h val="0.72141920882644162"/>
+          <c:w val="0.97260142482189749"/>
+          <c:h val="0.7214192088264415"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -961,7 +961,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -972,7 +972,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1013,6 +1013,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1062,6 +1063,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1135,6 +1137,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1191,16 +1194,6 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-BC15-411D-962D-5DCB501C11F3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1218,6 +1211,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1261,11 +1255,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62860288"/>
-        <c:axId val="62870272"/>
+        <c:axId val="97185152"/>
+        <c:axId val="97201536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62860288"/>
+        <c:axId val="97185152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,7 +1269,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62870272"/>
+        <c:crossAx val="97201536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1283,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62870272"/>
+        <c:axId val="97201536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,13 +1303,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62860288"/>
+        <c:crossAx val="97185152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1342,7 +1337,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1371,7 +1366,7 @@
           <c:yMode val="edge"/>
           <c:x val="2.2858134693485639E-2"/>
           <c:y val="0.17364592842131704"/>
-          <c:w val="0.96715927750410513"/>
+          <c:w val="0.96715927750410535"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
       </c:layout>
@@ -1494,7 +1489,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1557,7 +1554,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1568,7 +1565,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1847,11 +1844,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62946688"/>
-        <c:axId val="62968960"/>
+        <c:axId val="97122176"/>
+        <c:axId val="97123712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62946688"/>
+        <c:axId val="97122176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1858,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62968960"/>
+        <c:crossAx val="97123712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1869,7 +1866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62968960"/>
+        <c:axId val="97123712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +1898,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62946688"/>
+        <c:crossAx val="97122176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1929,7 +1926,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2212,11 +2209,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62483072"/>
-        <c:axId val="62415232"/>
+        <c:axId val="97540352"/>
+        <c:axId val="97550336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62483072"/>
+        <c:axId val="97540352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2223,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62415232"/>
+        <c:crossAx val="97550336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2234,7 +2231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62415232"/>
+        <c:axId val="97550336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2268,7 +2265,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62483072"/>
+        <c:crossAx val="97540352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2297,7 +2294,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2324,9 +2321,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.33104174160971E-2"/>
-          <c:y val="0.17399131020088512"/>
-          <c:w val="0.93298799578986635"/>
+          <c:x val="5.3310417416097107E-2"/>
+          <c:y val="0.17399131020088515"/>
+          <c:w val="0.93298799578986624"/>
           <c:h val="0.80271606659122552"/>
         </c:manualLayout>
       </c:layout>
@@ -2509,7 +2506,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2520,7 +2517,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3050,9 +3047,9 @@
           <xdr:grpSpPr>
             <a:xfrm>
               <a:off x="247651" y="266699"/>
-              <a:ext cx="3648074" cy="2752726"/>
+              <a:ext cx="3648075" cy="2752726"/>
               <a:chOff x="247651" y="266699"/>
-              <a:chExt cx="3648074" cy="2752726"/>
+              <a:chExt cx="3648075" cy="2752726"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -3321,8 +3318,8 @@
               </xdr:cNvGraphicFramePr>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
-              <a:off x="1504950" y="266699"/>
-              <a:ext cx="2390775" cy="2752726"/>
+              <a:off x="1495426" y="266699"/>
+              <a:ext cx="2400300" cy="2752726"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3394,7 +3391,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4143375" y="696671"/>
-              <a:ext cx="1304925" cy="818167"/>
+              <a:ext cx="1280160" cy="849796"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -3641,8 +3638,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="5429250" y="257848"/>
-            <a:ext cx="2381250" cy="2788806"/>
+            <a:off x="5410200" y="257848"/>
+            <a:ext cx="2400300" cy="2788806"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3713,7 +3710,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8067676" y="696672"/>
-              <a:ext cx="1323974" cy="888983"/>
+              <a:ext cx="1280160" cy="849796"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -3960,8 +3957,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="9410699" y="45400"/>
-            <a:ext cx="2333625" cy="3089361"/>
+            <a:off x="9344025" y="45400"/>
+            <a:ext cx="2400299" cy="3089361"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4548,13 +4545,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1485901</xdr:colOff>
+      <xdr:colOff>1508761</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4563,8 +4560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="180975"/>
-          <a:ext cx="1257300" cy="676275"/>
+          <a:off x="323851" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5115,15 +5112,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:colOff>1451609</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5132,8 +5129,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="190501"/>
-          <a:ext cx="1257299" cy="685799"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5890,8 +5887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6078,8 +6075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B18:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -513,7 +513,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -737,7 +737,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -961,7 +961,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1554,7 +1554,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1606,6 +1606,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1655,6 +1656,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1728,6 +1730,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1801,6 +1804,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1892,6 +1896,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2506,7 +2511,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3527,7 +3532,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800599" y="1085074"/>
+              <a:off x="4810124" y="1111630"/>
               <a:ext cx="657225" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3582,7 +3587,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="1248346"/>
+              <a:off x="4800600" y="1283754"/>
               <a:ext cx="647700" cy="257174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3791,7 +3796,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8743950" y="957211"/>
+              <a:off x="8715375" y="939507"/>
               <a:ext cx="638175" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3846,7 +3851,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8715375" y="1129334"/>
+              <a:off x="8705850" y="1120482"/>
               <a:ext cx="676275" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3901,7 +3906,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8724899" y="1301458"/>
+              <a:off x="8715374" y="1283754"/>
               <a:ext cx="657225" cy="257174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4481,13 +4486,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4631,13 +4636,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85503</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$2">
       <xdr:nvSpPr>
@@ -4646,7 +4651,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="200025"/>
+          <a:off x="971550" y="219075"/>
           <a:ext cx="638176" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4701,13 +4706,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>866775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13759</xdr:rowOff>
+      <xdr:rowOff>32809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1504950</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>89737</xdr:rowOff>
+      <xdr:rowOff>108787</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$3">
       <xdr:nvSpPr>
@@ -4716,7 +4721,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="394759"/>
+          <a:off x="962025" y="413809"/>
           <a:ext cx="638175" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4770,14 +4775,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866776</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>189444</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85169</xdr:rowOff>
+      <xdr:rowOff>104219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$4">
       <xdr:nvSpPr>
@@ -4786,7 +4791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962026" y="570444"/>
+          <a:off x="962026" y="589494"/>
           <a:ext cx="647700" cy="276725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5017,9 +5022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5048,15 +5053,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:colOff>1800226</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5200,13 +5205,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104553</xdr:rowOff>
+      <xdr:rowOff>114078</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
@@ -5215,7 +5220,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="219075"/>
+          <a:off x="981075" y="228600"/>
           <a:ext cx="561975" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5270,13 +5275,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847724</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13758</xdr:rowOff>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>89736</xdr:rowOff>
+      <xdr:rowOff>118311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$3">
       <xdr:nvSpPr>
@@ -5285,7 +5290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981074" y="394758"/>
+          <a:off x="981074" y="423333"/>
           <a:ext cx="552451" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5340,13 +5345,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>8469</xdr:rowOff>
+      <xdr:rowOff>37044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1419226</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>94694</xdr:rowOff>
+      <xdr:rowOff>123269</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$4">
       <xdr:nvSpPr>
@@ -5355,7 +5360,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="579969"/>
+          <a:off x="971550" y="608544"/>
           <a:ext cx="581026" cy="276725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5587,12 +5592,12 @@
       <sheetName val="DB Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5888,7 +5893,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5913,7 +5918,7 @@
   <dimension ref="B20:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F27" sqref="F26:F27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6076,7 +6081,7 @@
   <dimension ref="B18:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
@@ -1013,7 +1013,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1063,7 +1062,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1137,7 +1135,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1211,7 +1208,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1303,7 +1299,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1489,9 +1484,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1606,7 +1599,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1656,7 +1648,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1730,7 +1721,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1804,7 +1794,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1896,7 +1885,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5892,7 +5880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -6080,7 +6068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B18:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Big Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
     <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Tags" sheetId="15" r:id="rId3"/>
+    <sheet name="Tags" sheetId="18" r:id="rId3"/>
     <sheet name="Features" sheetId="16" r:id="rId4"/>
     <sheet name="Execution" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId6"/>
@@ -27,19 +27,14 @@
     <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1">#REF!</definedName>
+    <definedName name="Chart10">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Feature 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Duration</t>
   </si>
@@ -101,12 +96,6 @@
     <t>FEATURE STATUS</t>
   </si>
   <si>
-    <t>Nov 18 2022, 3:30 PM</t>
-  </si>
-  <si>
-    <t>Nov 18 2022, 3:32 PM</t>
-  </si>
-  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -119,13 +108,7 @@
     <t>SCENARIO STATUS</t>
   </si>
   <si>
-    <t>Scenario 1</t>
-  </si>
-  <si>
     <t>Excel Extent Report</t>
-  </si>
-  <si>
-    <t>2 m 37 s</t>
   </si>
   <si>
     <t>SCENARIO PASS</t>
@@ -164,6 +147,33 @@
     <t>Level 1111</t>
   </si>
   <si>
+    <t>Jan 06, 2023 2:45:16 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:14 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:15 PM</t>
+  </si>
+  <si>
+    <t>0.252 s</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.013 s</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>0.022 s</t>
+  </si>
+  <si>
     <t>TAG NAME</t>
   </si>
   <si>
@@ -174,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +209,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,12 +251,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -272,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -280,9 +338,70 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,10 +447,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2840722495894918E-2"/>
-          <c:y val="0.1850397834129002"/>
-          <c:w val="0.96715927750410535"/>
-          <c:h val="0.78524645049290098"/>
+          <c:x val="2.5678865613496422E-2"/>
+          <c:y val="0.16711863485967701"/>
+          <c:w val="0.95003631621519014"/>
+          <c:h val="0.8121217551864629"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -482,13 +601,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,10 +665,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2840722495894918E-2"/>
-          <c:y val="0.1850397834129002"/>
-          <c:w val="0.96715927750410535"/>
-          <c:h val="0.78524645049290098"/>
+          <c:x val="5.0343364613669873E-2"/>
+          <c:y val="5.5931987747838106E-2"/>
+          <c:w val="0.90298271791368545"/>
+          <c:h val="0.92841856480396145"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -664,7 +777,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -706,13 +819,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,10 +883,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.1956398307354442E-2"/>
-          <c:y val="0.2285106433959492"/>
-          <c:w val="0.97260142482189749"/>
-          <c:h val="0.7214192088264415"/>
+          <c:x val="1.2642169728783901E-2"/>
+          <c:y val="0.15682596619887049"/>
+          <c:w val="0.98111309199557606"/>
+          <c:h val="0.8268978871736401"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -930,13 +1037,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,6 +1114,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1062,24 +1164,25 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21</c:f>
+              <c:f>Scenarios!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>Scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$21</c:f>
+              <c:f>Scenarios!$H$21:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1141,24 +1244,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21</c:f>
+              <c:f>Scenarios!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>Scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$21</c:f>
+              <c:f>Scenarios!$J$21:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1214,24 +1314,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21</c:f>
+              <c:f>Scenarios!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>Scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$21</c:f>
+              <c:f>Scenarios!$I$21:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1299,6 +1396,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1484,7 +1582,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1511,13 +1611,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1599,6 +1693,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1648,6 +1743,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1670,14 +1766,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB72-409B-BBA5-6D90A1021667}"/>
+              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1721,6 +1817,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1750,7 +1847,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB72-409B-BBA5-6D90A1021667}"/>
+              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1794,6 +1891,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1816,14 +1914,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB72-409B-BBA5-6D90A1021667}"/>
+              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1885,6 +1983,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2021,7 +2120,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2033,7 +2132,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,7 +2183,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2095,7 +2193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2106,9 +2204,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2158,7 +2253,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2169,7 +2263,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2180,9 +2274,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2468,13 +2559,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,16 +2606,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2352675</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1575435</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2539,8 +2624,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="104775"/>
-          <a:ext cx="3840480" cy="457200"/>
+          <a:off x="190500" y="142875"/>
+          <a:ext cx="3566160" cy="777240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,8 +2633,10 @@
         <a:solidFill>
           <a:schemeClr val="tx2"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2569,7 +2656,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -2596,16 +2683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2666999</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127634</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2614,8 +2701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200024" y="104775"/>
-          <a:ext cx="3802381" cy="457200"/>
+          <a:off x="8324849" y="152400"/>
+          <a:ext cx="3566160" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2623,8 +2710,10 @@
         <a:solidFill>
           <a:schemeClr val="tx2"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2671,16 +2760,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2268855</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2689,8 +2778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="104775"/>
-          <a:ext cx="3840480" cy="457200"/>
+          <a:off x="8324850" y="581025"/>
+          <a:ext cx="3566160" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2698,8 +2787,10 @@
         <a:solidFill>
           <a:schemeClr val="tx2"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2746,26 +2837,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3267075</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="&#10;'DB Data'!$B$6">
+    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="104775"/>
-          <a:ext cx="2914650" cy="447675"/>
+          <a:off x="1038225" y="180975"/>
+          <a:ext cx="2686050" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,16 +2886,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="2600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2 m 37 s</a:t>
+            <a:t>0.252 s</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="2000">
+          <a:endParaRPr lang="en-US" sz="2600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -2816,26 +2907,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3657600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="&#10;'DB Data'!$B$4">
+    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190625" y="104774"/>
-          <a:ext cx="2743199" cy="428625"/>
+          <a:off x="9315450" y="161925"/>
+          <a:ext cx="2562225" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2860,7 +2951,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2871,7 +2962,7 @@
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>Nov 18 2022, 3:30 PM</a:t>
+            <a:t>Jan 06, 2023 2:45:14 PM</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
@@ -2885,26 +2976,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3629025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="&#10;'DB Data'!$B$5">
+    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="114299"/>
-          <a:ext cx="2819400" cy="428625"/>
+          <a:off x="9286875" y="600076"/>
+          <a:ext cx="2600325" cy="333374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2929,7 +3020,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2940,7 +3031,7 @@
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>Nov 18 2022, 3:32 PM</a:t>
+            <a:t>Jan 06, 2023 2:45:15 PM</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
@@ -2957,13 +3048,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145814</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2972,10 +3063,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="38100"/>
-          <a:ext cx="11649076" cy="3324225"/>
-          <a:chOff x="171449" y="45400"/>
-          <a:chExt cx="11649076" cy="3089361"/>
+          <a:off x="190499" y="114300"/>
+          <a:ext cx="11700511" cy="3460514"/>
+          <a:chOff x="171449" y="116216"/>
+          <a:chExt cx="11700511" cy="3216021"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2985,10 +3076,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="266699"/>
-            <a:ext cx="3800475" cy="2788133"/>
-            <a:chOff x="171449" y="266699"/>
-            <a:chExt cx="3800475" cy="2788133"/>
+            <a:off x="171449" y="629632"/>
+            <a:ext cx="3566160" cy="2702605"/>
+            <a:chOff x="171449" y="629632"/>
+            <a:chExt cx="3566160" cy="2702605"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -2998,8 +3089,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="616433"/>
-              <a:ext cx="3800475" cy="2438399"/>
+              <a:off x="171449" y="952810"/>
+              <a:ext cx="3566160" cy="2379427"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3039,10 +3130,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="247651" y="266699"/>
-              <a:ext cx="3648075" cy="2752726"/>
-              <a:chOff x="247651" y="266699"/>
-              <a:chExt cx="3648075" cy="2752726"/>
+              <a:off x="219076" y="629632"/>
+              <a:ext cx="3470910" cy="2634366"/>
+              <a:chOff x="219076" y="629632"/>
+              <a:chExt cx="3470910" cy="2634366"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -3052,10 +3143,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="247651" y="696672"/>
-                <a:ext cx="1257299" cy="818167"/>
-                <a:chOff x="247651" y="696672"/>
-                <a:chExt cx="1257299" cy="818167"/>
+                <a:off x="219076" y="1006493"/>
+                <a:ext cx="1188720" cy="509878"/>
+                <a:chOff x="219076" y="1006493"/>
+                <a:chExt cx="1188720" cy="509878"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -3065,8 +3156,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="247651" y="696672"/>
-                  <a:ext cx="1257299" cy="818167"/>
+                  <a:off x="219076" y="1006493"/>
+                  <a:ext cx="1188720" cy="509878"/>
                 </a:xfrm>
                 <a:prstGeom prst="roundRect">
                   <a:avLst/>
@@ -3097,7 +3188,7 @@
                 <a:p>
                   <a:pPr algn="ctr"/>
                   <a:r>
-                    <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+                    <a:rPr lang="en-US" sz="1300" b="1" u="none">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -3116,28 +3207,6 @@
                     <a:t>PASSED</a:t>
                   </a:r>
                 </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>FAILED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>SKIPPED</a:t>
-                  </a:r>
-                </a:p>
               </xdr:txBody>
             </xdr:sp>
             <xdr:sp macro="" textlink="'DB Data'!$D$2">
@@ -3147,8 +3216,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="923925" y="930655"/>
-                  <a:ext cx="561975" cy="247651"/>
+                  <a:off x="876300" y="1231624"/>
+                  <a:ext cx="523875" cy="247651"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -3184,119 +3253,11 @@
                       </a:solidFill>
                     </a:rPr>
                     <a:pPr algn="ctr"/>
-                    <a:t>5</a:t>
+                    <a:t>1</a:t>
                   </a:fld>
                   <a:endParaRPr lang="en-US" sz="1200" b="0">
                     <a:solidFill>
                       <a:srgbClr val="27F959"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$D$3">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="30" name="TextBox 29"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="933449" y="1093925"/>
-                  <a:ext cx="552451" cy="247651"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>3</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$D$4">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="31" name="TextBox 30"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="914400" y="1257199"/>
-                  <a:ext cx="581026" cy="257174"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>2</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FFFF00"/>
                     </a:solidFill>
                   </a:endParaRPr>
                 </a:p>
@@ -3311,8 +3272,8 @@
               </xdr:cNvGraphicFramePr>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
-              <a:off x="1495426" y="266699"/>
-              <a:ext cx="2400300" cy="2752726"/>
+              <a:off x="1266826" y="629632"/>
+              <a:ext cx="2423160" cy="2634366"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3329,10 +3290,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="4067174" y="257848"/>
-            <a:ext cx="3819525" cy="2797246"/>
-            <a:chOff x="4067174" y="257848"/>
-            <a:chExt cx="3819525" cy="2797246"/>
+            <a:off x="3819523" y="116216"/>
+            <a:ext cx="4391027" cy="3209748"/>
+            <a:chOff x="3819523" y="116216"/>
+            <a:chExt cx="4391027" cy="3209748"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -3342,8 +3303,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4067174" y="620782"/>
-              <a:ext cx="3819525" cy="2434312"/>
+              <a:off x="3819523" y="142773"/>
+              <a:ext cx="4389120" cy="3183191"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3383,8 +3344,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4143375" y="696671"/>
-              <a:ext cx="1280160" cy="849796"/>
+              <a:off x="3886200" y="209810"/>
+              <a:ext cx="1280160" cy="594857"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -3415,7 +3376,7 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+                <a:rPr lang="en-US" sz="1600" b="1" u="none">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3434,28 +3395,6 @@
                 <a:t>PASSED</a:t>
               </a:r>
             </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>FAILED</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>SKIPPED</a:t>
-              </a:r>
-            </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:sp macro="" textlink="'DB Data'!$F$2">
@@ -3465,8 +3404,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="921802"/>
-              <a:ext cx="647700" cy="247651"/>
+              <a:off x="4552949" y="488054"/>
+              <a:ext cx="600075" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3496,128 +3435,18 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:srgbClr val="51FF21"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>20</a:t>
+                <a:t>1</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
                   <a:srgbClr val="51FF21"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$F$3">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="TextBox 20"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4810124" y="1111630"/>
-              <a:ext cx="657225" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>7</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$F$4">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="TextBox 21"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4800600" y="1283754"/>
-              <a:ext cx="647700" cy="257174"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>3</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
               </a:endParaRPr>
             </a:p>
@@ -3631,8 +3460,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="5410200" y="257848"/>
-            <a:ext cx="2400300" cy="2788806"/>
+            <a:off x="4905375" y="116216"/>
+            <a:ext cx="3305175" cy="3151325"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3648,10 +3477,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="7991475" y="45400"/>
-            <a:ext cx="3829050" cy="3089361"/>
-            <a:chOff x="7991475" y="45400"/>
-            <a:chExt cx="3829050" cy="3089361"/>
+            <a:off x="8305800" y="656190"/>
+            <a:ext cx="3566160" cy="2675377"/>
+            <a:chOff x="8305800" y="656190"/>
+            <a:chExt cx="3566160" cy="2675377"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -3661,8 +3490,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7991475" y="624613"/>
-              <a:ext cx="3829050" cy="2430480"/>
+              <a:off x="8305800" y="952139"/>
+              <a:ext cx="3566160" cy="2379428"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3702,8 +3531,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8067676" y="696672"/>
-              <a:ext cx="1280160" cy="849796"/>
+              <a:off x="8343901" y="997641"/>
+              <a:ext cx="1188720" cy="509877"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -3734,7 +3563,7 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+                <a:rPr lang="en-US" sz="1300" b="1" u="none">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3753,28 +3582,6 @@
                 <a:t>PASSED</a:t>
               </a:r>
             </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>FAILED</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>SKIPPED</a:t>
-              </a:r>
-            </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:sp macro="" textlink="'DB Data'!$H$2">
@@ -3784,8 +3591,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8715375" y="939507"/>
-              <a:ext cx="638175" cy="247651"/>
+              <a:off x="8991600" y="1240476"/>
+              <a:ext cx="533400" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3815,128 +3622,18 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:srgbClr val="51FF21"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>60</a:t>
+                <a:t>1</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
                   <a:srgbClr val="51FF21"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$H$3">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextBox 14"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8705850" y="1120482"/>
-              <a:ext cx="676275" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>15</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$H$4">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="TextBox 15"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8715374" y="1283754"/>
-              <a:ext cx="657225" cy="257174"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>10</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
               </a:endParaRPr>
             </a:p>
@@ -3950,8 +3647,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="9344025" y="45400"/>
-            <a:ext cx="2400299" cy="3089361"/>
+            <a:off x="9420224" y="656190"/>
+            <a:ext cx="2371726" cy="2593647"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3970,12 +3667,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.31053</cdr:x>
+      <cdr:y>0.40995</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.69182</cdr:x>
+      <cdr:y>0.73589</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$D$5">
       <cdr:nvSpPr>
@@ -3984,8 +3681,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="752474" y="1162052"/>
+          <a:ext cx="923926" cy="923925"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4119,7 +3816,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>10</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -4137,12 +3834,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.31963</cdr:x>
+      <cdr:y>0.3427</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.68208</cdr:x>
+      <cdr:y>0.69663</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$F$5">
       <cdr:nvSpPr>
@@ -4151,8 +3848,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="1056433" y="1162050"/>
+          <a:ext cx="1197961" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4279,16 +3976,16 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30</a:t>
+            <a:t>1</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -4304,12 +4001,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.30522</cdr:x>
+      <cdr:y>0.40273</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.69478</cdr:x>
+      <cdr:y>0.7372</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$H$5">
       <cdr:nvSpPr>
@@ -4318,8 +4015,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="572674" y="1058409"/>
-          <a:ext cx="970642" cy="1047601"/>
+          <a:off x="723901" y="1123950"/>
+          <a:ext cx="923926" cy="933450"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4453,7 +4150,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>85</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -4677,7 +4374,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>20</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -4747,7 +4444,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>7</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -4817,7 +4514,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -4985,7 +4682,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -5246,7 +4943,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>5</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -5316,7 +5013,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -5386,7 +5083,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -5554,7 +5251,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>10</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -5881,7 +5578,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5906,7 +5603,8 @@
   <dimension ref="B20:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5923,58 +5621,57 @@
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="G20" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="12">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="H21" s="13">
         <v>1</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5988,7 +5685,7 @@
   <dimension ref="B20:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6003,54 +5700,54 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>34</v>
+      <c r="B20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6" t="s">
-        <v>27</v>
+      <c r="B24" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6069,7 +5766,8 @@
   <dimension ref="B18:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6087,70 +5785,65 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="19">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="20">
         <v>1</v>
       </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-      <c r="J21">
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
+      <c r="J21" s="24">
+        <v>1</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6176,104 +5869,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
@@ -6289,7 +5982,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6319,122 +6012,104 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <f>SUM(F2:F4)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <f>SUM(H2:H4)</f>
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -16,11 +16,10 @@
     <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
     <sheet name="Tags" sheetId="18" r:id="rId3"/>
     <sheet name="Features" sheetId="16" r:id="rId4"/>
-    <sheet name="Execution" sheetId="12" r:id="rId5"/>
-    <sheet name="DB Data" sheetId="5" r:id="rId6"/>
+    <sheet name="DB Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Duration</t>
   </si>
@@ -133,18 +132,6 @@
   </si>
   <si>
     <t>STEP SKIP</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Level 11</t>
-  </si>
-  <si>
-    <t>Level 111</t>
-  </si>
-  <si>
-    <t>Level 1111</t>
   </si>
   <si>
     <t>Jan 06, 2023 2:45:16 PM</t>
@@ -1114,7 +1101,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1164,7 +1150,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1396,7 +1381,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1582,9 +1566,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1693,7 +1675,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1743,7 +1724,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1817,7 +1797,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1891,7 +1870,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1983,7 +1961,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2059,7 +2036,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2109,7 +2085,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2342,7 +2317,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2530,9 +2504,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5650,19 +5622,19 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G21" s="12">
         <v>1</v>
@@ -5701,7 +5673,7 @@
   <sheetData>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>26</v>
@@ -5718,7 +5690,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -5735,7 +5707,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>16</v>
@@ -5820,13 +5792,13 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E21" s="19">
         <v>1</v>
@@ -5853,130 +5825,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="33" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H30"/>
@@ -6046,7 +5894,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -6063,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -6080,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -6109,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -2858,18 +2858,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>0.252 s</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="2600" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2928,17 +2928,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>Jan 06, 2023 2:45:14 PM</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400">
+          <a:endParaRPr lang="en-US" sz="1400" i="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2949,7 +2949,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3629025</xdr:colOff>
+      <xdr:colOff>3648075</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
@@ -2966,8 +2966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9286875" y="600076"/>
-          <a:ext cx="2600325" cy="333374"/>
+          <a:off x="9305925" y="600076"/>
+          <a:ext cx="2581275" cy="333374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2997,17 +2997,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>Jan 06, 2023 2:45:15 PM</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400">
+          <a:endParaRPr lang="en-US" sz="1400" i="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3781,18 +3781,18 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3948,18 +3948,18 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3000" b="1">
+          <a:endParaRPr lang="en-US" sz="3600" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4115,18 +4115,18 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5549,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Big Scenario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Exceptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,10 +16,11 @@
     <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
     <sheet name="Tags" sheetId="18" r:id="rId3"/>
     <sheet name="Features" sheetId="16" r:id="rId4"/>
-    <sheet name="DB Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Exceptions" sheetId="19" r:id="rId5"/>
+    <sheet name="DB Data" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Duration</t>
   </si>
@@ -165,6 +166,12 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STEP / HOOK TEXT</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
   </si>
 </sst>
 </file>
@@ -1675,6 +1682,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1724,6 +1732,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1797,6 +1806,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1870,6 +1880,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1961,6 +1972,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2036,6 +2048,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2085,6 +2098,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2317,6 +2331,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2504,7 +2519,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5826,6 +5843,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H30"/>
   <sheetViews>

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Exceptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -434,17 +434,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1929905820595947E-3"/>
+          <c:y val="5.6284335775106678E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.5678865613496422E-2"/>
-          <c:y val="0.16711863485967701"/>
-          <c:w val="0.95003631621519014"/>
-          <c:h val="0.8121217551864629"/>
+          <c:x val="0.11780714910636171"/>
+          <c:y val="8.0818739637467149E-2"/>
+          <c:w val="0.76899981252343452"/>
+          <c:h val="0.87885598708448542"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -540,37 +570,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$C$2:$C$4</c:f>
@@ -652,17 +651,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9364481457108926E-3"/>
+          <c:y val="3.2123800120282653E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.0343364613669873E-2"/>
-          <c:y val="5.5931987747838106E-2"/>
-          <c:w val="0.90298271791368545"/>
-          <c:h val="0.92841856480396145"/>
+          <c:x val="6.6498186400440001E-2"/>
+          <c:y val="0.10118873685128098"/>
+          <c:w val="0.87710436725913243"/>
+          <c:h val="0.86336406553156542"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -758,37 +787,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$E$2:$E$4</c:f>
@@ -870,17 +868,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6171728533933258E-3"/>
+          <c:y val="5.4421749273573204E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.2642169728783901E-2"/>
-          <c:y val="0.15682596619887049"/>
-          <c:w val="0.98111309199557606"/>
-          <c:h val="0.8268978871736401"/>
+          <c:x val="0.11769966254218223"/>
+          <c:y val="8.4263722654767198E-2"/>
+          <c:w val="0.78142825896762902"/>
+          <c:h val="0.89306054848124394"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -976,37 +1004,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$G$2:$G$4</c:f>
@@ -1098,7 +1095,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -1108,11 +1105,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10500003204542271"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.85236429602767994"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1157,6 +1165,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1388,6 +1397,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1547,35 +1557,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$E$2:$E$4</c:f>
@@ -1672,7 +1653,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -1687,7 +1668,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8329460366640847E-2"/>
+          <c:y val="0.10887593576392122"/>
+          <c:w val="0.96030983733539887"/>
+          <c:h val="0.84848841833351085"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2037,7 +2028,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -2053,7 +2044,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3369832880226151E-2"/>
+          <c:y val="9.72480620155039E-2"/>
+          <c:w val="0.95324817070407986"/>
+          <c:h val="0.8601162790697674"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2493,37 +2494,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$C$2:$C$4</c:f>
@@ -2601,8 +2571,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1575435</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>43815</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
@@ -2614,7 +2584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="142875"/>
-          <a:ext cx="3566160" cy="777240"/>
+          <a:ext cx="3749040" cy="777240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2650,7 +2620,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" sz="1600" b="0" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2658,7 +2628,7 @@
             <a:t>Duration</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1600" i="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -2673,15 +2643,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2666999</xdr:colOff>
+      <xdr:colOff>2828924</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>127634</xdr:colOff>
+      <xdr:colOff>472439</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2690,8 +2660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8324849" y="152400"/>
-          <a:ext cx="3566160" cy="365760"/>
+          <a:off x="8486774" y="142875"/>
+          <a:ext cx="3749040" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2722,12 +2692,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" sz="1400" b="0" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2735,7 +2705,7 @@
             <a:t>Start Time</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="2400">
+            <a:rPr lang="en-US" sz="1400" i="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -2750,15 +2720,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>2828925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>127635</xdr:colOff>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2767,8 +2737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8324850" y="581025"/>
-          <a:ext cx="3566160" cy="365760"/>
+          <a:off x="8486775" y="561975"/>
+          <a:ext cx="3749040" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2799,12 +2769,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" sz="1400" b="0" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2812,7 +2782,7 @@
             <a:t>End Time</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="2400">
+            <a:rPr lang="en-US" sz="1400" i="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -2827,15 +2797,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
+      <xdr:colOff>885825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
       <xdr:nvSpPr>
@@ -2844,8 +2814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038225" y="180975"/>
-          <a:ext cx="2686050" cy="714375"/>
+          <a:off x="1019175" y="152401"/>
+          <a:ext cx="2933700" cy="771524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2897,15 +2867,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3657600</xdr:colOff>
+      <xdr:colOff>3790950</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
       <xdr:nvSpPr>
@@ -2914,8 +2884,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9315450" y="161925"/>
-          <a:ext cx="2562225" cy="333375"/>
+          <a:off x="9448800" y="142875"/>
+          <a:ext cx="2800350" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2966,13 +2936,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3648075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>3809999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -2983,8 +2953,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9305925" y="600076"/>
-          <a:ext cx="2581275" cy="333374"/>
+          <a:off x="9467849" y="561975"/>
+          <a:ext cx="2771775" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3037,13 +3007,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>127635</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>145814</xdr:rowOff>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3052,10 +3022,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="114300"/>
-          <a:ext cx="11700511" cy="3460514"/>
-          <a:chOff x="171449" y="116216"/>
-          <a:chExt cx="11700511" cy="3216021"/>
+          <a:off x="190499" y="28576"/>
+          <a:ext cx="12045316" cy="3657600"/>
+          <a:chOff x="171449" y="36548"/>
+          <a:chExt cx="12045316" cy="3399182"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3065,10 +3035,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="629632"/>
-            <a:ext cx="3566160" cy="2702605"/>
-            <a:chOff x="171449" y="629632"/>
-            <a:chExt cx="3566160" cy="2702605"/>
+            <a:off x="171449" y="815528"/>
+            <a:ext cx="3749040" cy="2620202"/>
+            <a:chOff x="171449" y="815528"/>
+            <a:chExt cx="3749040" cy="2620202"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -3078,8 +3048,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="952810"/>
-              <a:ext cx="3566160" cy="2379427"/>
+              <a:off x="171449" y="952809"/>
+              <a:ext cx="3749040" cy="2464407"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3112,165 +3082,23 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="25" name="Group 24"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="219076" y="629632"/>
-              <a:ext cx="3470910" cy="2634366"/>
-              <a:chOff x="219076" y="629632"/>
-              <a:chExt cx="3470910" cy="2634366"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="26" name="Group 25"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="219076" y="1006493"/>
-                <a:ext cx="1188720" cy="509878"/>
-                <a:chOff x="219076" y="1006493"/>
-                <a:chExt cx="1188720" cy="509878"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="219076" y="1006493"/>
-                  <a:ext cx="1188720" cy="509878"/>
-                </a:xfrm>
-                <a:prstGeom prst="roundRect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:lnRef>
-                <a:fillRef idx="3">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="3">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr rtlCol="0" anchor="ctr"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1300" b="1" u="none">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>FEATURES</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="51FF21"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>PASSED</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$D$2">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="29" name="TextBox 28"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="876300" y="1231624"/>
-                  <a:ext cx="523875" cy="247651"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="27F959"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>1</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="27F959"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-          <xdr:graphicFrame macro="">
-            <xdr:nvGraphicFramePr>
-              <xdr:cNvPr id="27" name="FeatureDough"/>
-              <xdr:cNvGraphicFramePr>
-                <a:graphicFrameLocks/>
-              </xdr:cNvGraphicFramePr>
-            </xdr:nvGraphicFramePr>
-            <xdr:xfrm>
-              <a:off x="1266826" y="629632"/>
-              <a:ext cx="2423160" cy="2634366"/>
-            </xdr:xfrm>
-            <a:graphic>
-              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-              </a:graphicData>
-            </a:graphic>
-          </xdr:graphicFrame>
-        </xdr:grpSp>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="27" name="FeatureDough"/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="419100" y="815528"/>
+            <a:ext cx="3238500" cy="2620202"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
@@ -3279,10 +3107,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3819523" y="116216"/>
-            <a:ext cx="4391027" cy="3209748"/>
-            <a:chOff x="3819523" y="116216"/>
-            <a:chExt cx="4391027" cy="3209748"/>
+            <a:off x="4000498" y="36548"/>
+            <a:ext cx="4389120" cy="3390329"/>
+            <a:chOff x="4000498" y="36548"/>
+            <a:chExt cx="4389120" cy="3390329"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -3292,8 +3120,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3819523" y="142773"/>
-              <a:ext cx="4389120" cy="3183191"/>
+              <a:off x="4000498" y="142772"/>
+              <a:ext cx="4389120" cy="3271713"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3326,121 +3154,6 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3886200" y="209810"/>
-              <a:ext cx="1280160" cy="594857"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1600" b="1" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>SCENARIOS</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>PASSED</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$F$2">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="TextBox 19"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4552949" y="488054"/>
-              <a:ext cx="600075" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>1</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="51FF21"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="23" name="FeatureDough"/>
@@ -3449,8 +3162,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="4905375" y="116216"/>
-            <a:ext cx="3305175" cy="3151325"/>
+            <a:off x="4400550" y="36548"/>
+            <a:ext cx="3590925" cy="3390329"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3466,10 +3179,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="8305800" y="656190"/>
-            <a:ext cx="3566160" cy="2675377"/>
-            <a:chOff x="8305800" y="656190"/>
-            <a:chExt cx="3566160" cy="2675377"/>
+            <a:off x="8467725" y="806675"/>
+            <a:ext cx="3749040" cy="2609869"/>
+            <a:chOff x="8467725" y="806675"/>
+            <a:chExt cx="3749040" cy="2609869"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -3479,8 +3192,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8305800" y="952139"/>
-              <a:ext cx="3566160" cy="2379428"/>
+              <a:off x="8467725" y="952137"/>
+              <a:ext cx="3749040" cy="2464407"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3513,121 +3226,6 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8343901" y="997641"/>
-              <a:ext cx="1188720" cy="509877"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1300" b="1" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>STEPS</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>PASSED</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$H$2">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="TextBox 13"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8991600" y="1240476"/>
-              <a:ext cx="533400" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>1</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="51FF21"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="FeatureDough"/>
@@ -3636,8 +3234,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="9420224" y="656190"/>
-            <a:ext cx="2371726" cy="2593647"/>
+            <a:off x="8734425" y="806675"/>
+            <a:ext cx="3200400" cy="2602499"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3656,12 +3254,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.31053</cdr:x>
-      <cdr:y>0.40995</cdr:y>
+      <cdr:x>0.35</cdr:x>
+      <cdr:y>0.34014</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.69182</cdr:x>
-      <cdr:y>0.73589</cdr:y>
+      <cdr:x>0.65294</cdr:x>
+      <cdr:y>0.69728</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$D$5">
       <cdr:nvSpPr>
@@ -3670,8 +3268,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="752474" y="1162052"/>
-          <a:ext cx="923926" cy="923925"/>
+          <a:off x="1133475" y="952503"/>
+          <a:ext cx="981075" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3823,12 +3421,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.31963</cdr:x>
-      <cdr:y>0.3427</cdr:y>
+      <cdr:x>0.33156</cdr:x>
+      <cdr:y>0.36031</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.69663</cdr:y>
+      <cdr:y>0.70496</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$F$5">
       <cdr:nvSpPr>
@@ -3837,8 +3435,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1056433" y="1162050"/>
-          <a:ext cx="1197961" cy="1200150"/>
+          <a:off x="1190625" y="1314450"/>
+          <a:ext cx="1258673" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3990,12 +3588,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.30522</cdr:x>
-      <cdr:y>0.40273</cdr:y>
+      <cdr:x>0.35119</cdr:x>
+      <cdr:y>0.35374</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.69478</cdr:x>
-      <cdr:y>0.7372</cdr:y>
+      <cdr:x>0.66667</cdr:x>
+      <cdr:y>0.71088</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$H$5">
       <cdr:nvSpPr>
@@ -4004,8 +3602,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="723901" y="1123950"/>
-          <a:ext cx="923926" cy="933450"/>
+          <a:off x="1123950" y="990599"/>
+          <a:ext cx="1009650" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4229,8 +3827,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1508761</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150494</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4240,7 +3838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="323851" y="180974"/>
-          <a:ext cx="1280160" cy="731520"/>
+          <a:ext cx="1280160" cy="352426"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4277,28 +3875,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>PASSED</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>FAILED</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SKIPPED</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4368,146 +3944,6 @@
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>32809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>108787</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="'DB Data'!$F$3">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="962025" y="413809"/>
-          <a:ext cx="638175" cy="266478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{4BDB8B57-B5FE-4228-A91E-0744CE1B7418}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1200" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>866776</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>17994</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1514476</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104219</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="'DB Data'!$F$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="962026" y="589494"/>
-          <a:ext cx="647700" cy="276725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{DA77F91B-9789-46AB-9B3F-1F66E6395C90}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1200" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4793,13 +4229,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451609</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4808,8 +4244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="190500"/>
-          <a:ext cx="1280160" cy="731520"/>
+          <a:off x="304799" y="190501"/>
+          <a:ext cx="1280160" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4846,28 +4282,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>PASSED</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>FAILED</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SKIPPED</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4937,146 +4351,6 @@
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>847724</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>118311</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="'DB Data'!$D$3">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="981074" y="423333"/>
-          <a:ext cx="552451" cy="266478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{0F641F1E-076E-4A80-BD49-68B7250FC91E}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1200" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>37044</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1419226</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123269</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="'DB Data'!$D$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="971550" y="608544"/>
-          <a:ext cx="581026" cy="276725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{7BE8BA97-C79D-4E6B-9351-B00E9B089144}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1200" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5262,7 +4536,7 @@
       <sheetName val="Scenarios"/>
       <sheetName val="Tags"/>
       <sheetName val="Features"/>
-      <sheetName val="Execution"/>
+      <sheetName val="Exceptions"/>
       <sheetName val="DB Data"/>
     </sheetNames>
     <sheetDataSet>
@@ -5566,9 +4840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5593,7 +4865,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5673,9 +4945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B20:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5756,7 +5026,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5845,9 +5115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Duration</t>
   </si>
@@ -93,9 +93,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>FEATURE STATUS</t>
-  </si>
-  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -109,30 +106,6 @@
   </si>
   <si>
     <t>Excel Extent Report</t>
-  </si>
-  <si>
-    <t>SCENARIO PASS</t>
-  </si>
-  <si>
-    <t>SCENARIO TOTAL</t>
-  </si>
-  <si>
-    <t>SCENARIO FAIL</t>
-  </si>
-  <si>
-    <t>SCENARIO SKIP</t>
-  </si>
-  <si>
-    <t>STEP TOTAL</t>
-  </si>
-  <si>
-    <t>STEP PASS</t>
-  </si>
-  <si>
-    <t>STEP FAIL</t>
-  </si>
-  <si>
-    <t>STEP SKIP</t>
   </si>
   <si>
     <t>Jan 06, 2023 2:45:16 PM</t>
@@ -173,12 +146,39 @@
   <si>
     <t>STACKTRACE</t>
   </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>FEATURE</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>PASS %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +236,33 @@
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF51FF21"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -269,16 +296,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -287,32 +351,10 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="hair">
@@ -324,78 +366,141 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,11 +1235,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scenarios!$H$20</c:f>
+              <c:f>Scenarios!$H$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STEP PASS</c:v>
+                  <c:v>PASSED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1172,7 +1277,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$21</c:f>
+              <c:f>Scenarios!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1183,7 +1288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$21:$H$21</c:f>
+              <c:f>Scenarios!$H$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1204,11 +1309,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scenarios!$J$20</c:f>
+              <c:f>Scenarios!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STEP SKIP</c:v>
+                  <c:v>SKIPPED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1245,7 +1350,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$21</c:f>
+              <c:f>Scenarios!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1256,7 +1361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$21:$J$21</c:f>
+              <c:f>Scenarios!$J$22:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1274,11 +1379,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scenarios!$I$20</c:f>
+              <c:f>Scenarios!$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STEP FAIL</c:v>
+                  <c:v>FAILED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1315,7 +1420,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$21</c:f>
+              <c:f>Scenarios!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1326,7 +1431,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$21:$I$21</c:f>
+              <c:f>Scenarios!$I$22:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1688,11 +1793,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tags!$D$20</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO PASS</c:v>
+                  <c:v>PASSED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1730,7 +1835,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1741,7 +1846,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$21</c:f>
+              <c:f>Tags!$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1762,11 +1867,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tags!$F$20</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO SKIP</c:v>
+                  <c:v>SKIPPED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1804,7 +1909,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1815,7 +1920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$21</c:f>
+              <c:f>Tags!$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1836,11 +1941,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tags!$E$20</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO FAIL</c:v>
+                  <c:v>FAILED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1878,7 +1983,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1889,7 +1994,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$21</c:f>
+              <c:f>Tags!$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2064,11 +2169,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$F$20</c:f>
+              <c:f>Features!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO PASS</c:v>
+                  <c:v>PASSED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2106,7 +2211,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2117,7 +2222,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$21</c:f>
+              <c:f>Features!$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2138,11 +2243,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$H$20</c:f>
+              <c:f>Features!$H$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO SKIP</c:v>
+                  <c:v>SKIPPED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2179,7 +2284,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2190,7 +2295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$21</c:f>
+              <c:f>Features!$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2208,11 +2313,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$G$20</c:f>
+              <c:f>Features!$G$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO FAIL</c:v>
+                  <c:v>FAILED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2249,7 +2354,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2260,7 +2365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$21</c:f>
+              <c:f>Features!$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3762,7 +3867,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
@@ -4131,8 +4236,8 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -4168,8 +4273,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4861,10 +4966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J21"/>
+  <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4872,69 +4977,90 @@
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B20" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="B21" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="12">
+      <c r="C21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="11">
         <v>1</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="12">
         <v>1</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:J20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4943,76 +5069,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:H24"/>
+  <dimension ref="B20:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+      <c r="C21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>28</v>
+      <c r="F21" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="28" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="28" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="27" t="s">
-        <v>23</v>
+      <c r="I25" s="36" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
+  <mergeCells count="3">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5022,89 +5164,117 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B18:L21"/>
+  <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="12" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="E21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="G21" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="C22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="E22" s="18">
         <v>1</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F22" s="19">
         <v>1</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23">
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="24">
-        <v>1</v>
-      </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:M20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5126,17 +5296,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>45</v>
+      <c r="D2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5188,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -5214,7 +5384,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -5231,7 +5401,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -5248,24 +5418,24 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <f>SUM(F2:F4)</f>
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <f>SUM(H2:H4)</f>
@@ -5277,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -366,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -433,7 +433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4985,48 +4984,48 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5086,32 +5085,32 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5133,20 +5132,20 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="37" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="I25" s="35" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5186,60 +5185,60 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="49" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="42" t="s">
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5267,7 +5266,7 @@
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="25"/>
-      <c r="M22" s="41"/>
+      <c r="M22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5296,16 +5295,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="35" t="s">
         <v>36</v>
       </c>
     </row>

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\White Back - Jan 30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -550,7 +550,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Features</a:t>
@@ -767,7 +767,7 @@
             <a:r>
               <a:rPr lang="en-US" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios</a:t>
@@ -984,7 +984,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Steps</a:t>
@@ -1201,7 +1201,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios</a:t>
@@ -1493,7 +1493,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Steps</a:t>
@@ -1513,9 +1513,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1526,9 +1524,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -2080,9 +2076,7 @@
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2093,9 +2087,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -2134,7 +2126,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -2428,7 +2420,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -2450,9 +2442,7 @@
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2463,9 +2453,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -2693,9 +2681,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="12700">
           <a:solidFill>
             <a:schemeClr val="dk1"/>
@@ -2726,7 +2712,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Duration</a:t>
@@ -2734,7 +2720,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1600" i="1">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> </a:t>
@@ -2770,9 +2756,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="12700">
           <a:solidFill>
             <a:schemeClr val="dk1"/>
@@ -2803,7 +2787,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Start Time</a:t>
@@ -2811,7 +2795,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1400" i="1">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> </a:t>
@@ -2847,9 +2831,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="12700">
           <a:solidFill>
             <a:schemeClr val="dk1"/>
@@ -2880,7 +2862,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>End Time</a:t>
@@ -2888,7 +2870,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1400" i="1">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> </a:t>
@@ -2951,7 +2933,7 @@
           <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -2960,7 +2942,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3021,7 +3003,7 @@
           <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
             <a:rPr lang="en-US" sz="1400" i="1">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
@@ -3029,7 +3011,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400" i="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3090,7 +3072,7 @@
           <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
             <a:rPr lang="en-US" sz="1400" i="1">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
@@ -3098,7 +3080,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400" i="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3158,9 +3140,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="6350"/>
           </xdr:spPr>
           <xdr:style>
@@ -3230,9 +3210,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="6350"/>
           </xdr:spPr>
           <xdr:style>
@@ -3302,9 +3280,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="6350"/>
           </xdr:spPr>
           <xdr:style>
@@ -3502,7 +3478,7 @@
           <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -3511,7 +3487,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3669,7 +3645,7 @@
           <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
             <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -3678,7 +3654,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3600" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3836,7 +3812,7 @@
           <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -3845,7 +3821,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3947,24 +3923,20 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:ln w="3175"/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3975,7 +3947,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>PASSED</a:t>
@@ -4354,24 +4326,20 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:ln w="3175"/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4382,7 +4350,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>PASSED</a:t>

--- a/src/main/resources/templates/report template - Basic DB.xlsx
+++ b/src/main/resources/templates/report template - Basic DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\White Back - Jan 30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,24 +17,34 @@
     <sheet name="Tags" sheetId="18" r:id="rId3"/>
     <sheet name="Features" sheetId="16" r:id="rId4"/>
     <sheet name="Exceptions" sheetId="19" r:id="rId5"/>
-    <sheet name="DB Data" sheetId="5" r:id="rId6"/>
+    <sheet name="Authors" sheetId="20" r:id="rId6"/>
+    <sheet name="Devices" sheetId="21" r:id="rId7"/>
+    <sheet name="DB Data" sheetId="5" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Chart1" localSheetId="5">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="6">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1">#REF!</definedName>
+    <definedName name="Chart10" localSheetId="5">#REF!</definedName>
+    <definedName name="Chart10" localSheetId="6">#REF!</definedName>
     <definedName name="Chart10">#REF!</definedName>
+    <definedName name="Chart30">#REF!</definedName>
+    <definedName name="Chart49">#REF!</definedName>
+    <definedName name="Chart51" localSheetId="6">#REF!</definedName>
+    <definedName name="Chart51">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>Duration</t>
   </si>
@@ -172,6 +182,18 @@
   </si>
   <si>
     <t>PASS %</t>
+  </si>
+  <si>
+    <t>AUTHOR NAME</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>DEVICE NAME</t>
+  </si>
+  <si>
+    <t>device</t>
   </si>
 </sst>
 </file>
@@ -366,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -472,6 +494,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -738,6 +764,377 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8329460366640847E-2"/>
+          <c:y val="0.10887593576392122"/>
+          <c:w val="0.96030983733539887"/>
+          <c:h val="0.84848841833351085"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="97122176"/>
+        <c:axId val="97123712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="97122176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="97123712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97123712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="97122176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1209,7 +1606,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1269,7 +1665,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1501,7 +1896,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1755,7 +2149,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Tags</a:t>
@@ -2055,7 +2449,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -2135,7 +2529,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2195,7 +2588,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2428,7 +2820,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2650,6 +3041,377 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Authors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8329460366640847E-2"/>
+          <c:y val="0.10887593576392122"/>
+          <c:w val="0.96030983733539887"/>
+          <c:h val="0.84848841833351085"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C43D-4700-9C1F-8935523D5E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C43D-4700-9C1F-8935523D5E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="97122176"/>
+        <c:axId val="97123712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="97122176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="97123712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97123712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="97122176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3325,6 +4087,80 @@
         </xdr:graphicFrame>
       </xdr:grpSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4952,21 +5788,21 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42" t="s">
+      <c r="F20" s="43"/>
+      <c r="G20" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
@@ -5053,19 +5889,19 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="31" t="s">
         <v>41</v>
       </c>
@@ -5103,13 +5939,13 @@
       <c r="B25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="36" t="s">
         <v>17</v>
       </c>
@@ -5153,24 +5989,24 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="48" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="41" t="s">
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
@@ -5282,6 +6118,196 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B20:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="45"/>
+      <c r="C21" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B20:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="45"/>
+      <c r="C21" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H30"/>
